--- a/xlsx/复活节彩蛋_intext.xlsx
+++ b/xlsx/复活节彩蛋_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>复活节彩蛋</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_复活节彩蛋</t>
+    <t>复活节</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_复活节彩蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E8%9B%8B</t>
@@ -47,9 +47,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8D%E6%B4%BB%E8%8A%82</t>
   </si>
   <si>
-    <t>复活节</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B</t>
   </si>
   <si>
@@ -71,25 +68,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>復活</t>
+    <t>复活</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%9F%BA%E7%9D%A3</t>
   </si>
   <si>
-    <t>耶穌基督</t>
+    <t>耶稣基督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>西歐</t>
+    <t>西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>美索不達米亞</t>
+    <t>美索不达米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E7%9A%84%E8%A1%80</t>
@@ -107,13 +104,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子遊戲機</t>
+    <t>电子游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E7%A2%9F</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%B2%9D%E7%86%B1%E5%BD%A9%E8%9B%8B</t>
   </si>
   <si>
-    <t>法貝熱彩蛋</t>
+    <t>法贝热彩蛋</t>
   </si>
 </sst>
 </file>
@@ -624,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>14</v>
@@ -650,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>29</v>
@@ -679,10 +676,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -708,10 +705,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -737,10 +734,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -766,10 +763,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -795,10 +792,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -824,10 +821,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -853,10 +850,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -882,10 +879,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -911,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -940,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -969,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -998,10 +995,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1027,10 +1024,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1056,10 +1053,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
